--- a/src/test/java/webAutomation/testData/Testdata.xlsx
+++ b/src/test/java/webAutomation/testData/Testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bijitbiswas/AutomationProject-Selenium-TestNG/src/test/java/webAutomation/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F063EDAF-BA0C-C84E-B7F3-FD672D7AA20C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA01F4DF-312B-FE4A-96B6-D0EC34E52F79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,9 +30,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
   <si>
-    <t>addAndRemoveCartItem</t>
-  </si>
-  <si>
     <t>standard_user</t>
   </si>
   <si>
@@ -40,6 +37,9 @@
   </si>
   <si>
     <t>default_value</t>
+  </si>
+  <si>
+    <t>addItemsToCart</t>
   </si>
 </sst>
 </file>
@@ -394,7 +394,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -409,21 +409,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/java/webAutomation/testData/Testdata.xlsx
+++ b/src/test/java/webAutomation/testData/Testdata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bijitbiswas/AutomationProject-Selenium-TestNG/src/test/java/webAutomation/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA01F4DF-312B-FE4A-96B6-D0EC34E52F79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD93251-DDF3-5146-8C10-BC8A00F95761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
   <si>
     <t>standard_user</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>addItemsToCart</t>
+  </si>
+  <si>
+    <t>verifyItemSorting</t>
   </si>
 </sst>
 </file>
@@ -391,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -426,6 +429,17 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
